--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="账单汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="calculation" sheetId="2" r:id="rId2"/>
+    <sheet name="账单明细(2017-06)" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +29,97 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吕哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕儿姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李方菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹高晋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+  </si>
+  <si>
+    <t>快递费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五香</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -37,7 +127,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,15 +171,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -111,8 +195,87 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +288,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,21 +330,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,89 +797,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="9" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17" style="5" customWidth="1"/>
+    <col min="3" max="4" width="17" style="4" customWidth="1"/>
+    <col min="5" max="6" width="36.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="32">
+        <f>SUM(E6:E600)</f>
+        <v>1458</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="50">
+        <f>SUM(C6:C600)</f>
+        <v>19</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="32">
+        <f>SUM(G6:G600)</f>
+        <v>65</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="50">
+        <f>SUM(D6:D600)</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="33">
+        <f>B1-B2</f>
+        <v>1393</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B5" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
         <v>42887</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>382</v>
       </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>42888</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1</v>
+      </c>
+      <c r="D7" s="45">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>60</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>42893</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="45">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>60</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>60</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>42900</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="45">
+        <v>3</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>100</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>42901</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="45">
+        <v>1</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>42902</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="45">
+        <v>4</v>
+      </c>
+      <c r="D12" s="45">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14">
+        <v>220</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="45">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>58</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="45">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>30</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>42903</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="45">
+        <v>1</v>
+      </c>
+      <c r="D15" s="45">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>60</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="45">
+        <v>2</v>
+      </c>
+      <c r="D16" s="45">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>110</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="45">
+        <v>2</v>
+      </c>
+      <c r="D17" s="45">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>150</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>42904</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="45">
+        <v>2</v>
+      </c>
+      <c r="D18" s="45">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>110</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C1:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>108</v>
-      </c>
-      <c r="B1">
-        <f>SUM(A:A)</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>五香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张贤伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,15 +491,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +811,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A18" activeCellId="1" sqref="A19 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -821,15 +832,15 @@
       </c>
       <c r="B1" s="32">
         <f>SUM(E6:E600)</f>
-        <v>1458</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="49" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="50">
+      <c r="E1" s="48">
         <f>SUM(C6:C600)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
@@ -841,13 +852,13 @@
       </c>
       <c r="B2" s="32">
         <f>SUM(G6:G600)</f>
-        <v>65</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="48">
         <f>SUM(D6:D600)</f>
         <v>18</v>
       </c>
@@ -861,9 +872,9 @@
       </c>
       <c r="B3" s="33">
         <f>B1-B2</f>
-        <v>1393</v>
-      </c>
-      <c r="C3" s="48"/>
+        <v>1446</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -950,7 +961,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="49">
         <v>42893</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -973,7 +984,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="46" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1051,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="49">
         <v>42902</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -1063,7 +1074,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="46" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1095,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="46" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1116,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="49">
         <v>42903</v>
       </c>
       <c r="B15" s="44" t="s">
@@ -1128,7 +1139,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="46" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1160,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="46" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1181,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="36">
         <v>42904</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -1194,11 +1205,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="45">
+        <v>2</v>
+      </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="14">
+        <v>58</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>

--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="账单明细(2017-06)" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,9 @@
   <si>
     <t>快递费</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小号真空包装袋</t>
   </si>
 </sst>
 </file>
@@ -136,19 +139,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,14 +159,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -172,7 +175,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,7 +184,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -190,7 +193,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,7 +201,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,7 +210,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,7 +219,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,7 +228,7 @@
       <b/>
       <sz val="16"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +236,7 @@
     <font>
       <sz val="12"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,7 +245,7 @@
       <b/>
       <sz val="12"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -251,7 +254,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,7 +263,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +272,7 @@
       <b/>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +280,7 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -315,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -375,6 +378,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -384,7 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,7 +426,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,7 +445,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,13 +472,10 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,34 +484,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,22 +823,22 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" activeCellId="1" sqref="A19 A18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17" style="7" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
     <col min="3" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="6" width="36.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="32.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="36.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
@@ -834,11 +846,11 @@
         <f>SUM(E6:E600)</f>
         <v>1516</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="47">
         <f>SUM(C6:C600)</f>
         <v>21</v>
       </c>
@@ -846,19 +858,19 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="18.75">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="32">
         <f>SUM(G6:G600)</f>
-        <v>70</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <f>SUM(D6:D600)</f>
         <v>18</v>
       </c>
@@ -866,24 +878,24 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="18.75">
       <c r="A3" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="33">
         <f>B1-B2</f>
-        <v>1446</v>
-      </c>
-      <c r="C3" s="51"/>
+        <v>1441</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="29" customFormat="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="37"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
@@ -891,17 +903,17 @@
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -918,15 +930,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="35">
         <v>42887</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44">
         <v>0</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>0</v>
       </c>
       <c r="E6" s="14">
@@ -937,17 +949,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="35">
         <v>42888</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>1</v>
       </c>
       <c r="E7" s="14">
@@ -960,17 +972,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+    <row r="8" spans="1:9">
+      <c r="A8" s="48">
         <v>42893</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>1</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -983,15 +995,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="48"/>
+      <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>2</v>
       </c>
       <c r="E9" s="14">
@@ -1004,17 +1016,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="35">
         <v>42900</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>3</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>1</v>
       </c>
       <c r="E10" s="14">
@@ -1027,17 +1039,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="35">
         <v>42901</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>1</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>1</v>
       </c>
       <c r="E11" s="14">
@@ -1050,17 +1062,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+    <row r="12" spans="1:9">
+      <c r="A12" s="48">
         <v>42902</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>4</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>4</v>
       </c>
       <c r="E12" s="14">
@@ -1073,15 +1085,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="48"/>
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>1</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>1</v>
       </c>
       <c r="E13" s="14">
@@ -1094,15 +1106,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="46" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="48"/>
+      <c r="B14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>1</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0</v>
       </c>
       <c r="E14" s="14">
@@ -1115,17 +1127,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+    <row r="15" spans="1:9">
+      <c r="A15" s="48">
         <v>42903</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <v>1</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <v>1</v>
       </c>
       <c r="E15" s="14">
@@ -1138,15 +1150,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="48"/>
+      <c r="B16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>2</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <v>2</v>
       </c>
       <c r="E16" s="14">
@@ -1159,15 +1171,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="46" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="48"/>
+      <c r="B17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>2</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>2</v>
       </c>
       <c r="E17" s="14">
@@ -1180,17 +1192,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+    <row r="18" spans="1:7">
+      <c r="A18" s="51">
         <v>42904</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="44">
         <v>2</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="44">
         <v>2</v>
       </c>
       <c r="E18" s="14">
@@ -1203,15 +1215,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="46" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="51"/>
+      <c r="B19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <v>2</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
       <c r="E19" s="14">
         <v>58</v>
       </c>
@@ -1222,126 +1236,132 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="34"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="34"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="34"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="34"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="34"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="34"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="34"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+    <row r="28" spans="1:7">
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+    <row r="29" spans="1:7">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>小号真空包装袋</t>
+  </si>
+  <si>
+    <t>罗坤莉</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,6 +505,9 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -823,7 +829,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -844,15 +850,15 @@
       </c>
       <c r="B1" s="32">
         <f>SUM(E6:E600)</f>
-        <v>1516</v>
-      </c>
-      <c r="C1" s="49"/>
+        <v>1627</v>
+      </c>
+      <c r="C1" s="50"/>
       <c r="D1" s="46" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="47">
         <f>SUM(C6:C600)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
@@ -864,15 +870,15 @@
       </c>
       <c r="B2" s="32">
         <f>SUM(G6:G600)</f>
-        <v>75</v>
-      </c>
-      <c r="C2" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="47">
         <f>SUM(D6:D600)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
@@ -884,9 +890,9 @@
       </c>
       <c r="B3" s="33">
         <f>B1-B2</f>
-        <v>1441</v>
-      </c>
-      <c r="C3" s="50"/>
+        <v>1547</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -973,7 +979,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="48">
+      <c r="A8" s="49">
         <v>42893</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -996,7 +1002,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1069,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48">
+      <c r="A12" s="49">
         <v>42902</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -1086,7 +1092,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +1113,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="45" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1134,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="48">
+      <c r="A15" s="49">
         <v>42903</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -1151,7 +1157,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="45" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1178,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="45" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1199,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="51">
+      <c r="A18" s="52">
         <v>42904</v>
       </c>
       <c r="B18" s="45" t="s">
@@ -1216,7 +1222,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="45" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1243,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -1250,12 +1256,27 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="34"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="48">
+        <v>42908</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="44">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14">
+        <v>111</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="34"/>

--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>罗坤莉</t>
+  </si>
+  <si>
+    <t>陈春艳</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,6 +508,9 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -829,7 +835,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -850,15 +856,15 @@
       </c>
       <c r="B1" s="32">
         <f>SUM(E6:E600)</f>
-        <v>1627</v>
-      </c>
-      <c r="C1" s="50"/>
+        <v>1685</v>
+      </c>
+      <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="47">
         <f>SUM(C6:C600)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
@@ -870,15 +876,15 @@
       </c>
       <c r="B2" s="32">
         <f>SUM(G6:G600)</f>
-        <v>80</v>
-      </c>
-      <c r="C2" s="51"/>
+        <v>85</v>
+      </c>
+      <c r="C2" s="52"/>
       <c r="D2" s="46" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="47">
         <f>SUM(D6:D600)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
@@ -890,9 +896,9 @@
       </c>
       <c r="B3" s="33">
         <f>B1-B2</f>
-        <v>1547</v>
-      </c>
-      <c r="C3" s="51"/>
+        <v>1600</v>
+      </c>
+      <c r="C3" s="52"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -979,7 +985,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="49">
+      <c r="A8" s="50">
         <v>42893</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -1002,7 +1008,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1075,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="49">
+      <c r="A12" s="50">
         <v>42902</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -1092,7 +1098,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1119,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="45" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1140,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="49">
+      <c r="A15" s="50">
         <v>42903</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -1157,7 +1163,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="45" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1184,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="45" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1205,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="52">
+      <c r="A18" s="53">
         <v>42904</v>
       </c>
       <c r="B18" s="45" t="s">
@@ -1222,7 +1228,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="45" t="s">
         <v>27</v>
       </c>
@@ -1243,7 +1249,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -1279,12 +1285,27 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="49">
+        <v>42909</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1</v>
+      </c>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>58</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="34"/>

--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,18 +24,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吕哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕儿姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李方菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹高晋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+  </si>
+  <si>
+    <t>快递费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麻辣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,100 +119,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小吕哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕儿姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李方菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹高晋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘俊杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二佐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李鹤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈兴</t>
+    <t>张贤伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>快递费</t>
-  </si>
-  <si>
-    <t>快递费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小号真空包装袋</t>
+  </si>
+  <si>
+    <t>罗坤莉</t>
+  </si>
+  <si>
+    <t>陈春艳</t>
   </si>
   <si>
     <t>张贤伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小号真空包装袋</t>
-  </si>
-  <si>
-    <t>罗坤莉</t>
-  </si>
-  <si>
-    <t>陈春艳</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>微店</t>
   </si>
 </sst>
 </file>
@@ -147,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +294,23 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
@@ -397,11 +422,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,7 +448,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,7 +462,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,7 +469,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,7 +479,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -519,6 +539,9 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,6 +551,11 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -832,570 +860,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="6" width="36.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="6" width="36.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="54" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="18.75">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="18.75">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="27">
+        <f>SUM(E6:E600)</f>
+        <v>1739.8</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="42">
+        <f>SUM(C6:C600)</f>
+        <v>25</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="18.75">
+      <c r="A2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32">
-        <f>SUM(E6:E600)</f>
-        <v>1685</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="46" t="s">
+      <c r="B2" s="27">
+        <f>SUM(G6:G600)</f>
+        <v>90</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="47">
-        <f>SUM(C6:C600)</f>
-        <v>24</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="18.75">
-      <c r="A2" s="30" t="s">
+      <c r="E2" s="42">
+        <f>SUM(D6:D600)</f>
+        <v>22</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="18.75">
+      <c r="A3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32">
-        <f>SUM(G6:G600)</f>
-        <v>85</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="46" t="s">
+      <c r="B3" s="28">
+        <f>B1-B2</f>
+        <v>1649.8</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" s="24" customFormat="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30">
+        <v>42887</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>382</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30">
+        <v>42888</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>60</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="46">
+        <v>42893</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>60</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="46"/>
+      <c r="B9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>60</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30">
+        <v>42900</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="39">
+        <v>3</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30">
+        <v>42901</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>58</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="46">
+        <v>42902</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="39">
+        <v>4</v>
+      </c>
+      <c r="D12" s="39">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
+        <v>220</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="46"/>
+      <c r="B13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>58</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="46"/>
+      <c r="B14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>30</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="46">
+        <v>42903</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="46"/>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="39">
+        <v>2</v>
+      </c>
+      <c r="D16" s="39">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>110</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="46"/>
+      <c r="B17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="39">
+        <v>2</v>
+      </c>
+      <c r="D17" s="39">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>150</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="49">
+        <v>42904</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="39">
+        <v>2</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>110</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="49"/>
+      <c r="B19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="47">
-        <f>SUM(D6:D600)</f>
-        <v>21</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="18.75">
-      <c r="A3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="33">
-        <f>B1-B2</f>
-        <v>1600</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" s="29" customFormat="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="21">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="C19" s="39">
+        <v>2</v>
+      </c>
+      <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="2" t="s">
+      <c r="E19" s="12">
+        <v>58</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="49"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43">
+        <v>42908</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="35">
-        <v>42887</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>382</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="35">
-        <v>42888</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="44">
-        <v>1</v>
-      </c>
-      <c r="D7" s="44">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>60</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="50">
-        <v>42893</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="44">
-        <v>1</v>
-      </c>
-      <c r="D8" s="44">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>60</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="50"/>
-      <c r="B9" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44">
+      <c r="D21" s="39">
         <v>2</v>
       </c>
-      <c r="E9" s="14">
-        <v>60</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="35">
-        <v>42900</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="44">
-        <v>3</v>
-      </c>
-      <c r="D10" s="44">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>100</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="35">
-        <v>42901</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="E21" s="12">
+        <v>111</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="44">
+        <v>42909</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="39">
+        <v>1</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="50">
-        <v>42902</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="44">
-        <v>4</v>
-      </c>
-      <c r="D12" s="44">
-        <v>4</v>
-      </c>
-      <c r="E12" s="14">
-        <v>220</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="50"/>
-      <c r="B13" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="44">
-        <v>1</v>
-      </c>
-      <c r="D13" s="44">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>58</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="50"/>
-      <c r="B14" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1</v>
-      </c>
-      <c r="D14" s="44">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>30</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="50">
-        <v>42903</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
-        <v>60</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="50"/>
-      <c r="B16" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="44">
-        <v>2</v>
-      </c>
-      <c r="D16" s="44">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>110</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="50"/>
-      <c r="B17" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="44">
-        <v>2</v>
-      </c>
-      <c r="D17" s="44">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>150</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="53">
-        <v>42904</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="44">
-        <v>2</v>
-      </c>
-      <c r="D18" s="44">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>110</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="53"/>
-      <c r="B19" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="44">
-        <v>2</v>
-      </c>
-      <c r="D19" s="44">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>58</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="53"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="48">
-        <v>42908</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="44">
-        <v>2</v>
-      </c>
-      <c r="D21" s="44">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14">
-        <v>111</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="49">
-        <v>42909</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="F22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="45">
+        <v>42912</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="44">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14">
-        <v>58</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C23" s="39">
+        <v>1</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>54.8</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="29"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="29"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="29"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="29"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="33"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/账单/账单.xlsx
+++ b/账单/账单.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="账单明细(2017-06)" sheetId="3" r:id="rId1"/>
+    <sheet name="账单明细(2017-07)" sheetId="4" r:id="rId1"/>
+    <sheet name="账单明细(2017-06)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +147,36 @@
   </si>
   <si>
     <t>微店</t>
+  </si>
+  <si>
+    <t>淘宝打折优惠服务</t>
+  </si>
+  <si>
+    <t>洪贞</t>
+  </si>
+  <si>
+    <t>诸葛翠丽</t>
+  </si>
+  <si>
+    <t>姚敏</t>
+  </si>
+  <si>
+    <t>朱再晓</t>
+  </si>
+  <si>
+    <t>陶艳梅</t>
+  </si>
+  <si>
+    <t>何英</t>
+  </si>
+  <si>
+    <t>吴骞</t>
+  </si>
+  <si>
+    <t>快递</t>
+  </si>
+  <si>
+    <t>进货(风干牦牛肉)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,23 +570,37 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -860,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -871,79 +916,83 @@
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" customWidth="1"/>
     <col min="3" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="6" width="36.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="7" width="36.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="18.75">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="18.75">
       <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="27">
         <f>SUM(E6:E600)</f>
-        <v>1739.8</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="C1" s="55"/>
       <c r="D1" s="41" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E1" s="42">
         <f>SUM(C6:C600)</f>
-        <v>25</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="18.75">
+        <v>1</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="18.75">
       <c r="A2" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="27">
-        <f>SUM(G6:G600)</f>
-        <v>90</v>
-      </c>
-      <c r="C2" s="48"/>
+        <f>SUM(H6:H600)</f>
+        <v>223</v>
+      </c>
+      <c r="C2" s="56"/>
       <c r="D2" s="41" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E2" s="42">
         <f>SUM(D6:D600)</f>
-        <v>22</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="18.75">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="18.75">
       <c r="A3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="28">
         <f>B1-B2</f>
-        <v>1649.8</v>
-      </c>
-      <c r="C3" s="48"/>
+        <v>-173</v>
+      </c>
+      <c r="C3" s="56"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" s="24" customFormat="1">
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9" s="24" customFormat="1">
       <c r="A4" s="20"/>
       <c r="B4" s="31"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="21">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -959,378 +1008,778 @@
       <c r="E5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="30">
-        <v>42887</v>
-      </c>
-      <c r="B6" s="38"/>
+      <c r="H5" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="50">
+        <v>42931</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="12">
-        <v>382</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="30">
-        <v>42888</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="39">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>60</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="46">
-        <v>42893</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="39">
-        <v>1</v>
-      </c>
-      <c r="D8" s="39">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>60</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="46"/>
-      <c r="B9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="39">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>60</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8">
-        <v>5</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="30">
-        <v>42900</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="39">
-        <v>3</v>
-      </c>
-      <c r="D10" s="39">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8">
-        <v>5</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="30">
-        <v>42901</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>58</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8">
-        <v>5</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="46">
-        <v>42902</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="39">
-        <v>4</v>
-      </c>
-      <c r="D12" s="39">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12">
-        <v>220</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="8">
-        <v>10</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>58</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="39">
-        <v>1</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>30</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="8">
-        <v>5</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="46">
-        <v>42903</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="39">
-        <v>1</v>
-      </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
-        <v>60</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="39">
-        <v>2</v>
-      </c>
-      <c r="D16" s="39">
-        <v>2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>110</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="8">
-        <v>5</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="39">
-        <v>2</v>
-      </c>
-      <c r="D17" s="39">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>150</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="8">
-        <v>5</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="49">
-        <v>42904</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="39">
-        <v>2</v>
-      </c>
-      <c r="D18" s="39">
-        <v>2</v>
-      </c>
-      <c r="E18" s="12">
-        <v>110</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="8">
-        <v>5</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="49"/>
-      <c r="B19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="39">
-        <v>2</v>
-      </c>
-      <c r="D19" s="39">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>58</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="8">
-        <v>5</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="49"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="50">
+        <v>42934</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="50"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="50"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="50"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="50"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="50"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="50"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="50"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="50"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="50"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="50"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="51"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="51"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="51"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="50"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="50"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="50"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="29"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="29"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="29"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="33"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="58"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="7" width="36.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="18.75">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="27">
+        <f>SUM(E6:E600)</f>
+        <v>2080.4</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="42">
+        <f>SUM(C6:C600)</f>
+        <v>31</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="18.75">
+      <c r="A2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="27">
+        <f>SUM(H6:H600)</f>
+        <v>276</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="42">
+        <f>SUM(D6:D600)</f>
         <v>28</v>
       </c>
-      <c r="G20" s="8">
-        <v>5</v>
-      </c>
-      <c r="H20" s="54" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="18.75">
+      <c r="A3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>B1-B2</f>
+        <v>1804.4</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9" s="24" customFormat="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30">
+        <v>42887</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>382</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>34</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="30">
+        <v>42888</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>60</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="54">
+        <v>42893</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>60</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="54"/>
+      <c r="B9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>60</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30">
+        <v>42900</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="39">
+        <v>3</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>100</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="30">
+        <v>42901</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>58</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="54">
+        <v>42902</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="39">
+        <v>4</v>
+      </c>
+      <c r="D12" s="39">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
+        <v>220</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="54"/>
+      <c r="B13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>58</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="54"/>
+      <c r="B14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>30</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="54">
+        <v>42903</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="54"/>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="39">
+        <v>2</v>
+      </c>
+      <c r="D16" s="39">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>110</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="54"/>
+      <c r="B17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="39">
+        <v>2</v>
+      </c>
+      <c r="D17" s="39">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>150</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="57">
+        <v>42904</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="39">
+        <v>2</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>110</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="57"/>
+      <c r="B19" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="39">
+        <v>2</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>58</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="57"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1349,14 +1798,14 @@
       <c r="E21" s="12">
         <v>111</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="8">
-        <v>5</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>34</v>
+      <c r="H21" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1375,14 +1824,14 @@
       <c r="E22" s="12">
         <v>58</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="8">
-        <v>5</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>34</v>
+      <c r="H22" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1401,14 +1850,14 @@
       <c r="E23" s="12">
         <v>54.8</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="8">
-        <v>5</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>33</v>
+      <c r="H23" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1417,46 +1866,139 @@
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="8">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="29"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>58.6</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="29"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="50">
+        <v>42914</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="39">
+        <v>2</v>
+      </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="12">
+        <v>56.4</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="29"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>56.4</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="33"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="32">
+        <v>1</v>
+      </c>
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>56.4</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="58">
+        <v>42916</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="32">
+        <v>1</v>
+      </c>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>56.4</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="35">
+        <v>1</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>56.4</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="34"/>
